--- a/input_data/admin_data/CHL/gpinter_CHL_2018.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2018.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,63 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +450,124 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J82"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +823,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +855,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>1441629.7263197701</v>
+        <v>4077068.3749480899</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="F2">
-        <v>26342.966209193401</v>
+        <v>35623.513284551897</v>
       </c>
       <c r="G2">
-        <v>0.99996974595391097</v>
+        <v>0.99998000535613696</v>
       </c>
       <c r="H2">
-        <v>4118817.46053595</v>
+        <v>7549975.6581813404</v>
       </c>
       <c r="I2">
-        <v>67641.436455579897</v>
+        <v>75586.755083114404</v>
       </c>
       <c r="J2">
-        <v>156.353594649434</v>
+        <v>211.93798595534301</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +887,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F3">
-        <v>110107.692536339</v>
+        <v>116274.979520982</v>
       </c>
       <c r="G3">
-        <v>0.99950054477679395</v>
+        <v>0.99979461048871798</v>
       </c>
       <c r="H3">
-        <v>4237969.6965383198</v>
+        <v>7691001.86390018</v>
       </c>
       <c r="I3">
-        <v>154987.78430449899</v>
+        <v>158436.383086933</v>
       </c>
       <c r="J3">
-        <v>38.4893153140927</v>
+        <v>66.144942751955696</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +917,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F4">
-        <v>201114.67428508101</v>
+        <v>201345.96408047399</v>
       </c>
       <c r="G4">
-        <v>0.99842545745391997</v>
+        <v>0.99940600679479796</v>
       </c>
       <c r="H4">
-        <v>4361696.4211514601</v>
+        <v>7835858.8923773495</v>
       </c>
       <c r="I4">
-        <v>249817.12718191301</v>
+        <v>245774.983409415</v>
       </c>
       <c r="J4">
-        <v>21.687609005441001</v>
+        <v>38.917387433926997</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +947,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F5">
-        <v>299849.06307472597</v>
+        <v>290975.22057120601</v>
       </c>
       <c r="G5">
-        <v>0.996692577487441</v>
+        <v>0.99880318397995504</v>
       </c>
       <c r="H5">
-        <v>4490192.6490880102</v>
+        <v>7984684.0670630001</v>
       </c>
       <c r="I5">
-        <v>352625.45467654598</v>
+        <v>337740.72181919502</v>
       </c>
       <c r="J5">
-        <v>14.974843019499399</v>
+        <v>27.4411135470177</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +977,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>406817.48691527499</v>
+        <v>385300.19909234898</v>
       </c>
       <c r="G6">
-        <v>0.99424655790114502</v>
+        <v>0.99797479286467605</v>
       </c>
       <c r="H6">
-        <v>4623662.5585851604</v>
+        <v>8137622.93396788</v>
       </c>
       <c r="I6">
-        <v>463929.52499221801</v>
+        <v>434470.06100555201</v>
       </c>
       <c r="J6">
-        <v>11.365446932098299</v>
+        <v>21.120214713456299</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +1007,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F7">
-        <v>522546.52021285897</v>
+        <v>484456.23074997897</v>
       </c>
       <c r="G7">
-        <v>0.991028467176999</v>
+        <v>0.99690914956157295</v>
       </c>
       <c r="H7">
-        <v>4762320.3263715897</v>
+        <v>8294830.1354569001</v>
       </c>
       <c r="I7">
-        <v>584264.96334422904</v>
+        <v>536096.89470764203</v>
       </c>
       <c r="J7">
-        <v>9.1136772366825092</v>
+        <v>17.1219392154701</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1037,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F8">
-        <v>647580.38108095701</v>
+        <v>588575.61003266403</v>
       </c>
       <c r="G8">
-        <v>0.98697565838236001</v>
+        <v>0.99559424177635802</v>
       </c>
       <c r="H8">
-        <v>4906391.20095874</v>
+        <v>8456470.4113058504</v>
       </c>
       <c r="I8">
-        <v>714183.49289483298</v>
+        <v>642751.57562063297</v>
       </c>
       <c r="J8">
-        <v>7.5764975967444697</v>
+        <v>14.367687459622299</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1067,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F9">
-        <v>782477.65983680205</v>
+        <v>697786.56691248296</v>
       </c>
       <c r="G9">
-        <v>0.982021657505047</v>
+        <v>0.99401773749310796</v>
       </c>
       <c r="H9">
-        <v>5056112.9048181605</v>
+        <v>8622719.7482353207</v>
       </c>
       <c r="I9">
-        <v>854249.08100258396</v>
+        <v>754559.82901382702</v>
       </c>
       <c r="J9">
-        <v>6.4616706192898796</v>
+        <v>12.357245262528499</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1097,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F10">
-        <v>927806.83895850996</v>
+        <v>812212.12065709895</v>
       </c>
       <c r="G10">
-        <v>0.97609607852032898</v>
+        <v>0.99216699632415895</v>
       </c>
       <c r="H10">
-        <v>5211737.4908854105</v>
+        <v>8793766.703001</v>
       </c>
       <c r="I10">
-        <v>1005032.73554614</v>
+        <v>871641.54420898994</v>
       </c>
       <c r="J10">
-        <v>5.6172656549241804</v>
+        <v>10.8269336043479</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1127,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F11">
-        <v>1084140.3121203999</v>
+        <v>931968.80776136799</v>
       </c>
       <c r="G11">
-        <v>0.96912457455369105</v>
+        <v>0.99002908382417498</v>
       </c>
       <c r="H11">
-        <v>5373533.82762923</v>
+        <v>8969813.9287519399</v>
       </c>
       <c r="I11">
-        <v>1167105.62824337</v>
+        <v>994109.43670188601</v>
       </c>
       <c r="J11">
-        <v>4.9564929627231296</v>
+        <v>9.6245859883420906</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1157,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F12">
-        <v>1252046.5466135601</v>
+        <v>1057165.27725768</v>
       </c>
       <c r="G12">
-        <v>0.96102883674435202</v>
+        <v>0.98759078908570497</v>
       </c>
       <c r="H12">
-        <v>5541790.9556046603</v>
+        <v>9151079.9399348907</v>
       </c>
       <c r="I12">
-        <v>1341030.15255394</v>
+        <v>1122067.57489811</v>
       </c>
       <c r="J12">
-        <v>4.4261860476303001</v>
+        <v>8.6562433867229505</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1187,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F13">
-        <v>1432079.9578331499</v>
+        <v>1187900.7481118799</v>
       </c>
       <c r="G13">
-        <v>0.95172665513647603</v>
+        <v>0.98483864594826598</v>
       </c>
       <c r="H13">
-        <v>5716822.6557317702</v>
+        <v>9337801.1577264499</v>
       </c>
       <c r="I13">
-        <v>1527348.44132397</v>
+        <v>1255609.7671378199</v>
       </c>
       <c r="J13">
-        <v>3.9919716943611001</v>
+        <v>7.8607587145378304</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1217,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F14">
-        <v>1624767.9750488</v>
+        <v>1324263.3256878101</v>
       </c>
       <c r="G14">
-        <v>0.94113205921881904</v>
+        <v>0.981758958163649</v>
       </c>
       <c r="H14">
-        <v>5898973.7085321099</v>
+        <v>9530234.2860737909</v>
       </c>
       <c r="I14">
-        <v>1726567.77249822</v>
+        <v>1394817.8077330899</v>
       </c>
       <c r="J14">
-        <v>3.63065606851029</v>
+        <v>7.1966308370911696</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1247,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F15">
-        <v>1830594.6734147901</v>
+        <v>1466328.1776861199</v>
       </c>
       <c r="G15">
-        <v>0.92915555969902996</v>
+        <v>0.97833782886323395</v>
       </c>
       <c r="H15">
-        <v>6088628.5238063801</v>
+        <v>9728659.0782284401</v>
       </c>
       <c r="I15">
-        <v>1939142.1796753299</v>
+        <v>1539759.5845829099</v>
       </c>
       <c r="J15">
-        <v>3.3260385885689598</v>
+        <v>6.6347078548134704</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1277,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F16">
-        <v>2049980.22858787</v>
+        <v>1614155.5749691799</v>
       </c>
       <c r="G16">
-        <v>0.91570451783805495</v>
+        <v>0.97456119466684898</v>
       </c>
       <c r="H16">
-        <v>6286223.1116221501</v>
+        <v>9933381.5655695796</v>
       </c>
       <c r="I16">
-        <v>2165449.4598238999</v>
+        <v>1690487.05736602</v>
       </c>
       <c r="J16">
-        <v>3.0664798732973302</v>
+        <v>6.1539183208899999</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1307,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F17">
-        <v>2283255.3209829</v>
+        <v>1767788.8098792599</v>
       </c>
       <c r="G17">
-        <v>0.90068367427268303</v>
+        <v>0.97041486475059502</v>
       </c>
       <c r="H17">
-        <v>6492261.79421206</v>
+        <v>10144737.8350107</v>
       </c>
       <c r="I17">
-        <v>2405762.6395140099</v>
+        <v>1847034.12356363</v>
       </c>
       <c r="J17">
-        <v>2.8434234816180202</v>
+        <v>5.7386593796255596</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1337,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F18">
-        <v>2530629.48661181</v>
+        <v>1927252.0148815601</v>
       </c>
       <c r="G18">
-        <v>0.88399587576525696</v>
+        <v>0.96588456514877097</v>
       </c>
       <c r="H18">
-        <v>6707340.6970908996</v>
+        <v>10363098.4589961</v>
       </c>
       <c r="I18">
-        <v>2660214.8393385699</v>
+        <v>2009414.4020724001</v>
       </c>
       <c r="J18">
-        <v>2.6504633462052798</v>
+        <v>5.37713717717038</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1367,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F19">
-        <v>2792152.3036329001</v>
+        <v>2092547.9187946001</v>
       </c>
       <c r="G19">
-        <v>0.86554304567462303</v>
+        <v>0.96095598849202502</v>
       </c>
       <c r="H19">
-        <v>6932181.0225215899</v>
+        <v>10588873.7037779</v>
       </c>
       <c r="I19">
-        <v>2928756.3984103901</v>
+        <v>2177618.9811493</v>
       </c>
       <c r="J19">
-        <v>2.48273742571351</v>
+        <v>5.0602777640941801</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1397,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F20">
-        <v>3067666.2674772702</v>
+        <v>2263655.59815958</v>
       </c>
       <c r="G20">
-        <v>0.84522745183703596</v>
+        <v>0.95561484926922002</v>
       </c>
       <c r="H20">
-        <v>7167676.5886457805</v>
+        <v>10822519.6682953</v>
       </c>
       <c r="I20">
-        <v>3211103.15979366</v>
+        <v>2351614.20175714</v>
       </c>
       <c r="J20">
-        <v>2.3365242381923701</v>
+        <v>4.7809921602448497</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1427,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F21">
-        <v>3356750.3456902602</v>
+        <v>2440528.3097931799</v>
       </c>
       <c r="G21">
-        <v>0.82295333317002595</v>
+        <v>0.94984694452617802</v>
       </c>
       <c r="H21">
-        <v>7414962.42794903</v>
+        <v>11064545.5387679</v>
       </c>
       <c r="I21">
-        <v>3506675.1255954602</v>
+        <v>2531339.58117721</v>
       </c>
       <c r="J21">
-        <v>2.2089704816651401</v>
+        <v>4.53366817929086</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1457,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F22">
-        <v>3658653.7312360601</v>
+        <v>2623091.53060224</v>
       </c>
       <c r="G22">
-        <v>0.79862895180098004</v>
+        <v>0.94363821965727102</v>
       </c>
       <c r="H22">
-        <v>7675514.9147725999</v>
+        <v>11315522.1845793</v>
       </c>
       <c r="I22">
-        <v>3814525.58628467</v>
+        <v>2716706.0295783798</v>
       </c>
       <c r="J22">
-        <v>2.0979069019957399</v>
+        <v>4.3138114139621297</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1487,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F23">
-        <v>3972220.6843101499</v>
+        <v>2811241.3871174101</v>
       </c>
       <c r="G23">
-        <v>0.77216913679687005</v>
+        <v>0.93697483857131403</v>
       </c>
       <c r="H23">
-        <v>7951299.8668074599</v>
+        <v>11576092.371094501</v>
       </c>
       <c r="I23">
-        <v>4133262.9969804399</v>
+        <v>2907594.5795453899</v>
       </c>
       <c r="J23">
-        <v>2.0017266155967199</v>
+        <v>4.1177866917235599</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1517,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F24">
-        <v>4295810.5529443203</v>
+        <v>3004843.7368815402</v>
       </c>
       <c r="G24">
-        <v>0.74349836980643103</v>
+        <v>0.92984325697358705</v>
       </c>
       <c r="H24">
-        <v>8244995.0106402999</v>
+        <v>11846982.9270804</v>
       </c>
       <c r="I24">
-        <v>4460972.8254873697</v>
+        <v>3103855.9438767699</v>
       </c>
       <c r="J24">
-        <v>1.9193106653619201</v>
+        <v>3.9426286238017001</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1547,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F25">
-        <v>4627224.30310643</v>
+        <v>3203734.2769692498</v>
       </c>
       <c r="G25">
-        <v>0.71255441281079201</v>
+        <v>0.92223029673247703</v>
       </c>
       <c r="H25">
-        <v>8560330.1927363798</v>
+        <v>12129019.281377301</v>
       </c>
       <c r="I25">
-        <v>4795157.8070999403</v>
+        <v>3305311.3530192999</v>
       </c>
       <c r="J25">
-        <v>1.84999248620593</v>
+        <v>3.7859005250745801</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1577,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F26">
-        <v>4963665.3501481703</v>
+        <v>3407720.2165035801</v>
       </c>
       <c r="G26">
-        <v>0.67929235030226498</v>
+        <v>0.91412321819209996</v>
       </c>
       <c r="H26">
-        <v>8902618.5914306007</v>
+        <v>12423142.8789893</v>
       </c>
       <c r="I26">
-        <v>5132740.8869926399</v>
+        <v>3511755.3179252199</v>
       </c>
       <c r="J26">
-        <v>1.7935573741216899</v>
+        <v>3.6455876919777701</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1607,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F27">
-        <v>5301800.9462673403</v>
+        <v>3616584.2823697599</v>
       </c>
       <c r="G27">
-        <v>0.64368861105296604</v>
+        <v>0.90550978570834895</v>
       </c>
       <c r="H27">
-        <v>9279606.3618743997</v>
+        <v>12730432.105232799</v>
       </c>
       <c r="I27">
-        <v>5470237.00443637</v>
+        <v>3722961.24552547</v>
       </c>
       <c r="J27">
-        <v>1.75027437957805</v>
+        <v>3.52001532697345</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1637,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F28">
-        <v>5638084.3611891503</v>
+        <v>3830092.1639266601</v>
       </c>
       <c r="G28">
-        <v>0.60574379828609204</v>
+        <v>0.89637831941163004</v>
       </c>
       <c r="H28">
-        <v>9702869.6238119602</v>
+        <v>13052127.4930795</v>
       </c>
       <c r="I28">
-        <v>5804356.21692931</v>
+        <v>3938691.24268746</v>
       </c>
       <c r="J28">
-        <v>1.72095147965567</v>
+        <v>3.4077841823258699</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1667,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F29">
-        <v>5969742.0528553901</v>
+        <v>4048004.9942906499</v>
       </c>
       <c r="G29">
-        <v>0.56548133622000496</v>
+        <v>0.88671772292301299</v>
       </c>
       <c r="H29">
-        <v>10190183.7996723</v>
+        <v>13389662.169020001</v>
       </c>
       <c r="I29">
-        <v>6133724.4165844601</v>
+        <v>4158712.04518467</v>
       </c>
       <c r="J29">
-        <v>1.7069722124422799</v>
+        <v>3.3077187868851201</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1697,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F30">
-        <v>6297513.7690011198</v>
+        <v>4270099.19088108</v>
       </c>
       <c r="G30">
-        <v>0.52293418070148801</v>
+        <v>0.87651747200071295</v>
       </c>
       <c r="H30">
-        <v>10769677.997256299</v>
+        <v>13744698.712244401</v>
       </c>
       <c r="I30">
-        <v>6463661.8216214897</v>
+        <v>4382819.8980893297</v>
       </c>
       <c r="J30">
-        <v>1.7101475903504799</v>
+        <v>3.2188242234739302</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1727,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F31">
-        <v>6633340.98793309</v>
+        <v>4496197.0577778704</v>
       </c>
       <c r="G31">
-        <v>0.478098383383947</v>
+        <v>0.86576754216136997</v>
       </c>
       <c r="H31">
-        <v>11487347.3598621</v>
+        <v>14119173.864810601</v>
       </c>
       <c r="I31">
-        <v>6820096.3013475602</v>
+        <v>4610878.5468898304</v>
       </c>
       <c r="J31">
-        <v>1.73175891014182</v>
+        <v>3.14024801034603</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1757,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F32">
-        <v>7023503.3590399502</v>
+        <v>4726213.17787869</v>
       </c>
       <c r="G32">
-        <v>0.43079014482009498</v>
+        <v>0.85445824311889695</v>
       </c>
       <c r="H32">
-        <v>12420797.571565</v>
+        <v>14515352.8363907</v>
       </c>
       <c r="I32">
-        <v>7294302.8797707399</v>
+        <v>4842876.5171064399</v>
       </c>
       <c r="J32">
-        <v>1.76846182547605</v>
+        <v>3.0712437823013499</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1787,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F33">
-        <v>7626950.5071305698</v>
+        <v>4960224.0975754</v>
       </c>
       <c r="G33">
-        <v>0.380192527785715</v>
+        <v>0.84257991273115096</v>
       </c>
       <c r="H33">
-        <v>13702421.2445135</v>
+        <v>14935895.2850552</v>
       </c>
       <c r="I33">
-        <v>8190012.2351080701</v>
+        <v>5079012.9530845098</v>
       </c>
       <c r="J33">
-        <v>1.79657927918935</v>
+        <v>3.0111331648011599</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1817,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F34">
-        <v>8918219.4481623806</v>
+        <v>5198572.6204212904</v>
       </c>
       <c r="G34">
-        <v>0.32338173867958397</v>
+        <v>0.83012240040613605</v>
       </c>
       <c r="H34">
-        <v>15539890.9143153</v>
+        <v>15383935.3910539</v>
       </c>
       <c r="I34">
-        <v>10014323.008556999</v>
+        <v>5319826.0857003797</v>
       </c>
       <c r="J34">
-        <v>1.7424880610576801</v>
+        <v>2.9592614193022801</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1847,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F35">
-        <v>11296844.1365568</v>
+        <v>5442023.9793822402</v>
       </c>
       <c r="G35">
-        <v>0.25391644654717299</v>
+        <v>0.81707423540996205</v>
       </c>
       <c r="H35">
-        <v>18302674.8671945</v>
+        <v>15863178.6913088</v>
       </c>
       <c r="I35">
-        <v>12854317.244629201</v>
+        <v>5566385.9439566201</v>
       </c>
       <c r="J35">
-        <v>1.62015821816702</v>
+        <v>2.9149409762633098</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1877,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F36">
-        <v>14484766.7757785</v>
+        <v>5692000.5759829301</v>
       </c>
       <c r="G36">
-        <v>0.16475126765311701</v>
+        <v>0.80342132250283604</v>
       </c>
       <c r="H36">
-        <v>23751032.489759699</v>
+        <v>16378018.328676401</v>
       </c>
       <c r="I36">
-        <v>14668536.8907643</v>
+        <v>5820584.9534792397</v>
       </c>
       <c r="J36">
-        <v>1.6397248818307699</v>
+        <v>2.8773746787346601</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1907,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F37">
-        <v>14860253.285917901</v>
+        <v>5950937.0877278103</v>
       </c>
       <c r="G37">
-        <v>0.15457629926632399</v>
+        <v>0.78914492481167997</v>
       </c>
       <c r="H37">
-        <v>24760198.667425901</v>
+        <v>16933672.7168447</v>
       </c>
       <c r="I37">
-        <v>15076453.5718928</v>
+        <v>6085579.5163274696</v>
       </c>
       <c r="J37">
-        <v>1.66620300414998</v>
+        <v>2.8455472587276698</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1937,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F38">
-        <v>15310765.4626003</v>
+        <v>6222822.3507964602</v>
       </c>
       <c r="G38">
-        <v>0.14411837564235699</v>
+        <v>0.774218563621073</v>
       </c>
       <c r="H38">
-        <v>25970666.804367501</v>
+        <v>17536344.561317801</v>
       </c>
       <c r="I38">
-        <v>15600215.452233</v>
+        <v>6366467.5902987299</v>
       </c>
       <c r="J38">
-        <v>1.6962356890520101</v>
+        <v>2.8180692895842299</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1967,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F39">
-        <v>15930283.250004699</v>
+        <v>6514035.08353684</v>
       </c>
       <c r="G39">
-        <v>0.13329713967071999</v>
+        <v>0.75860325623643898</v>
       </c>
       <c r="H39">
-        <v>27452159.854672499</v>
+        <v>18193396.147848401</v>
       </c>
       <c r="I39">
-        <v>16384605.3565534</v>
+        <v>6671340.4607256697</v>
       </c>
       <c r="J39">
-        <v>1.72326878460648</v>
+        <v>2.79295335602801</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1997,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F40">
-        <v>16931303.331156202</v>
+        <v>6834648.6958455797</v>
       </c>
       <c r="G40">
-        <v>0.12193180427465999</v>
+        <v>0.74224017412155896</v>
       </c>
       <c r="H40">
-        <v>29296752.271025602</v>
+        <v>18913524.628293499</v>
       </c>
       <c r="I40">
-        <v>17755151.766173299</v>
+        <v>7012936.75220221</v>
       </c>
       <c r="J40">
-        <v>1.7303306011366</v>
+        <v>2.7673001890777602</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2027,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F41">
-        <v>18752287.487993602</v>
+        <v>7200496.3604498599</v>
       </c>
       <c r="G41">
-        <v>0.109615776488871</v>
+        <v>0.72503924417077903</v>
       </c>
       <c r="H41">
-        <v>31605072.371996101</v>
+        <v>19706897.153366301</v>
       </c>
       <c r="I41">
-        <v>20054755.2180264</v>
+        <v>7411280.5442557903</v>
       </c>
       <c r="J41">
-        <v>1.6853982423334499</v>
+        <v>2.7368803714158298</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2057,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F42">
-        <v>21466835.1750171</v>
+        <v>7636487.0076083299</v>
       </c>
       <c r="G42">
-        <v>0.095704607169948802</v>
+        <v>0.706861279362057</v>
       </c>
       <c r="H42">
-        <v>34492651.660488501</v>
+        <v>20585155.4825885</v>
       </c>
       <c r="I42">
-        <v>22934929.081195101</v>
+        <v>7897617.5254557999</v>
       </c>
       <c r="J42">
-        <v>1.60678793027818</v>
+        <v>2.6956315727479399</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2087,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.87</v>
       </c>
       <c r="F43">
-        <v>24318993.591091</v>
+        <v>8179782.2642838899</v>
       </c>
       <c r="G43">
-        <v>0.079795578199143694</v>
+        <v>0.687490455036462</v>
       </c>
       <c r="H43">
-        <v>38345225.853586301</v>
+        <v>21561119.940829501</v>
       </c>
       <c r="I43">
-        <v>25285056.914166398</v>
+        <v>8505201.8651398495</v>
       </c>
       <c r="J43">
-        <v>1.57676039141824</v>
+        <v>2.6359038962410599</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2117,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.88</v>
       </c>
       <c r="F44">
-        <v>26020118.2609635</v>
+        <v>8852345.3027352393</v>
       </c>
       <c r="G44">
-        <v>0.062256360983697599</v>
+        <v>0.66662938261147997</v>
       </c>
       <c r="H44">
-        <v>44875310.323296301</v>
+        <v>22649113.113803599</v>
       </c>
       <c r="I44">
-        <v>29148175.287549101</v>
+        <v>9242552.4470773097</v>
       </c>
       <c r="J44">
-        <v>1.72463898408257</v>
+        <v>2.5585437914182299</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2147,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F45">
-        <v>36620772.347727202</v>
+        <v>9653889.6000190806</v>
       </c>
       <c r="G45">
-        <v>0.042037455424667997</v>
+        <v>0.64395977887397804</v>
       </c>
       <c r="H45">
-        <v>60602445.359043501</v>
+        <v>23867891.356233299</v>
       </c>
       <c r="I45">
-        <v>37417741.1659161</v>
+        <v>10105957.514792001</v>
       </c>
       <c r="J45">
-        <v>1.6548652984050101</v>
+        <v>2.4723600895732298</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2177,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F46">
-        <v>38097914.667868301</v>
+        <v>10577358.474195</v>
       </c>
       <c r="G46">
-        <v>0.039441938664519498</v>
+        <v>0.61917246459470598</v>
       </c>
       <c r="H46">
-        <v>63178523.602724001</v>
+        <v>25244084.7403774</v>
       </c>
       <c r="I46">
-        <v>38513120.167544797</v>
+        <v>11084539.6863728</v>
       </c>
       <c r="J46">
-        <v>1.6583197309749</v>
+        <v>2.38661522174595</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2207,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F47">
-        <v>38794850.748809703</v>
+        <v>11607917.727829</v>
       </c>
       <c r="G47">
-        <v>0.036770439911101099</v>
+        <v>0.59198493996430501</v>
       </c>
       <c r="H47">
-        <v>66261699.032120898</v>
+        <v>26817367.524155699</v>
       </c>
       <c r="I47">
-        <v>38891386.872437097</v>
+        <v>12159848.674109999</v>
       </c>
       <c r="J47">
-        <v>1.7080024217944401</v>
+        <v>2.3102651270402501</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2237,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F48">
-        <v>38985425.710868701</v>
+        <v>12724185.772620101</v>
       </c>
       <c r="G48">
-        <v>0.034072702332415397</v>
+        <v>0.56215995898329596</v>
       </c>
       <c r="H48">
-        <v>70171743.626360893</v>
+        <v>28649557.380411401</v>
       </c>
       <c r="I48">
-        <v>39526640.105559498</v>
+        <v>13311115.1026257</v>
       </c>
       <c r="J48">
-        <v>1.79994811770897</v>
+        <v>2.2515827646952</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2267,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F49">
-        <v>40676506.502989702</v>
+        <v>13909539.0725231</v>
       </c>
       <c r="G49">
-        <v>0.031330899816560003</v>
+        <v>0.529511217587599</v>
       </c>
       <c r="H49">
-        <v>75279260.879826799</v>
+        <v>30840763.420095101</v>
       </c>
       <c r="I49">
-        <v>43590049.675737403</v>
+        <v>14540318.897053599</v>
       </c>
       <c r="J49">
-        <v>1.85068156908445</v>
+        <v>2.2172383469570098</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2297,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F50">
-        <v>46917131.148387</v>
+        <v>15197859.420177599</v>
       </c>
       <c r="G50">
-        <v>0.028307235079359401</v>
+        <v>0.49384755546606601</v>
       </c>
       <c r="H50">
-        <v>81617103.120643198</v>
+        <v>33557504.173935302</v>
       </c>
       <c r="I50">
-        <v>49471486.834052697</v>
+        <v>15966418.3164426</v>
       </c>
       <c r="J50">
-        <v>1.7396013166813</v>
+        <v>2.2080414909866999</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2327,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F51">
-        <v>51225393.177191898</v>
+        <v>16842413.496622998</v>
       </c>
       <c r="G51">
-        <v>0.024875598929601301</v>
+        <v>0.454686038297137</v>
       </c>
       <c r="H51">
-        <v>89653507.192288607</v>
+        <v>37075721.345433898</v>
       </c>
       <c r="I51">
-        <v>54141415.2016472</v>
+        <v>18141495.256761599</v>
       </c>
       <c r="J51">
-        <v>1.7501770436816599</v>
+        <v>2.2013306675357298</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2357,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F52">
-        <v>59155995.804731399</v>
+        <v>19741304.9455938</v>
       </c>
       <c r="G52">
-        <v>0.021120028812445402</v>
+        <v>0.41018961687768402</v>
       </c>
       <c r="H52">
-        <v>101490871.189182</v>
+        <v>41809277.867601901</v>
       </c>
       <c r="I52">
-        <v>66291686.454739697</v>
+        <v>21946619.956571199</v>
       </c>
       <c r="J52">
-        <v>1.7156480895731101</v>
+        <v>2.1178578611103198</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2387,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F53">
-        <v>74466881.668086201</v>
+        <v>24431066.0664596</v>
       </c>
       <c r="G53">
-        <v>0.016521643717823099</v>
+        <v>0.35636020334264401</v>
       </c>
       <c r="H53">
-        <v>119090463.55640399</v>
+        <v>48430163.837945402</v>
       </c>
       <c r="I53">
-        <v>86800109.927907303</v>
+        <v>27395040.208741199</v>
       </c>
       <c r="J53">
-        <v>1.5992406407886599</v>
+        <v>1.9823188929292399</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2417,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F54">
-        <v>102777474.817461</v>
+        <v>30701905.108893801</v>
       </c>
       <c r="G54">
-        <v>0.0105006725666883</v>
+        <v>0.28916721639871101</v>
       </c>
       <c r="H54">
-        <v>151380817.18489999</v>
+        <v>58947725.652547598</v>
       </c>
       <c r="I54">
-        <v>104992419.520565</v>
+        <v>37228570.985633098</v>
       </c>
       <c r="J54">
-        <v>1.4728987791708399</v>
+        <v>1.9200022097479399</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2447,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F55">
-        <v>107296481.977134</v>
+        <v>44733075.942507103</v>
       </c>
       <c r="G55">
-        <v>0.0097723827873972009</v>
+        <v>0.19785510788861699</v>
       </c>
       <c r="H55">
-        <v>156535083.59202299</v>
+        <v>80666880.319462106</v>
       </c>
       <c r="I55">
-        <v>109800916.394554</v>
+        <v>46734701.163075201</v>
       </c>
       <c r="J55">
-        <v>1.4589022930442599</v>
+        <v>1.80329384062788</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2477,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F56">
-        <v>112418259.245809</v>
+        <v>48967374.305207998</v>
       </c>
       <c r="G56">
-        <v>0.0090107384179074403</v>
+        <v>0.18639228782647599</v>
       </c>
       <c r="H56">
-        <v>162376854.49167401</v>
+        <v>84437122.447949499</v>
       </c>
       <c r="I56">
-        <v>115293188.672536</v>
+        <v>51064349.894532204</v>
       </c>
       <c r="J56">
-        <v>1.44439929581749</v>
+        <v>1.7243547085384401</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2507,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F57">
-        <v>118315493.723462</v>
+        <v>52535653.918683998</v>
       </c>
       <c r="G57">
-        <v>0.0082109963858974892</v>
+        <v>0.17386751629988001</v>
       </c>
       <c r="H57">
-        <v>169103092.46587899</v>
+        <v>88608719.017126605</v>
       </c>
       <c r="I57">
-        <v>121680370.75861099</v>
+        <v>53307621.048046798</v>
       </c>
       <c r="J57">
-        <v>1.4292556887023</v>
+        <v>1.6866396895768601</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2537,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F58">
-        <v>125245145.20044</v>
+        <v>54079588.177407302</v>
       </c>
       <c r="G58">
-        <v>0.0073669490654479797</v>
+        <v>0.16079252806186101</v>
       </c>
       <c r="H58">
-        <v>177006879.41704699</v>
+        <v>93651733.012709498</v>
       </c>
       <c r="I58">
-        <v>129286323.597123</v>
+        <v>54851555.306768499</v>
       </c>
       <c r="J58">
-        <v>1.4132833582792199</v>
+        <v>1.73173901963688</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2567,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F59">
-        <v>133612952.231805</v>
+        <v>55623522.436130702</v>
       </c>
       <c r="G59">
-        <v>0.0064701423387442201</v>
+        <v>0.14733885246402001</v>
       </c>
       <c r="H59">
-        <v>186550990.58109599</v>
+        <v>100118429.297033</v>
       </c>
       <c r="I59">
-        <v>138644108.767189</v>
+        <v>57635527.513871603</v>
       </c>
       <c r="J59">
-        <v>1.39620439085463</v>
+        <v>1.79992968643784</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2597,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="F60">
-        <v>144113551.386628</v>
+        <v>62854988.128387399</v>
       </c>
       <c r="G60">
-        <v>0.0055084244562995403</v>
+        <v>0.133202340094491</v>
       </c>
       <c r="H60">
-        <v>198527711.03450701</v>
+        <v>108615009.65366501</v>
       </c>
       <c r="I60">
-        <v>150723293.71504599</v>
+        <v>69080422.016490504</v>
       </c>
       <c r="J60">
-        <v>1.3775783687537899</v>
+        <v>1.7280252989915199</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2627,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="F61">
-        <v>158084404.98411101</v>
+        <v>73560374.632452801</v>
       </c>
       <c r="G61">
-        <v>0.0044629181729410796</v>
+        <v>0.116258689494721</v>
       </c>
       <c r="H61">
-        <v>214462516.80754101</v>
+        <v>118498656.562959</v>
       </c>
       <c r="I61">
-        <v>167582176.73300099</v>
+        <v>78045349.202626303</v>
       </c>
       <c r="J61">
-        <v>1.35663297609335</v>
+        <v>1.6109033858927699</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2657,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="F62">
-        <v>178635592.651979</v>
+        <v>83121240.179614604</v>
       </c>
       <c r="G62">
-        <v>0.0033004686640654198</v>
+        <v>0.097116172856495597</v>
       </c>
       <c r="H62">
-        <v>237902686.844942</v>
+        <v>131983092.349737</v>
       </c>
       <c r="I62">
-        <v>195016048.23267201</v>
+        <v>89927484.689643696</v>
       </c>
       <c r="J62">
-        <v>1.3317765139247999</v>
+        <v>1.5878383439002799</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2687,599 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.998</v>
+      </c>
+      <c r="F63">
+        <v>98030577.755926296</v>
+      </c>
+      <c r="G63">
+        <v>0.075059274021486697</v>
+      </c>
+      <c r="H63">
+        <v>153010896.17978299</v>
+      </c>
+      <c r="I63">
+        <v>110786453.185105</v>
+      </c>
+      <c r="J63">
+        <v>1.5608486625544999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.999</v>
+      </c>
+      <c r="F64">
+        <v>127968962.176265</v>
+      </c>
+      <c r="G64">
+        <v>0.047886206759273901</v>
+      </c>
+      <c r="H64">
+        <v>195235339.17446101</v>
+      </c>
+      <c r="I64">
+        <v>130462568.286732</v>
+      </c>
+      <c r="J64">
+        <v>1.52564603052374</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F65">
+        <v>133071830.92366999</v>
+      </c>
+      <c r="G65">
+        <v>0.044686295541489202</v>
+      </c>
+      <c r="H65">
+        <v>202432313.71754101</v>
+      </c>
+      <c r="I65">
+        <v>135943585.86386001</v>
+      </c>
+      <c r="J65">
+        <v>1.5212258846401301</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F66">
+        <v>138964641.32247499</v>
+      </c>
+      <c r="G66">
+        <v>0.0413519490610827</v>
+      </c>
+      <c r="H66">
+        <v>210743404.69925001</v>
+      </c>
+      <c r="I66">
+        <v>142329925.987582</v>
+      </c>
+      <c r="J66">
+        <v>1.5165253743231599</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F67">
+        <v>145894239.71193501</v>
+      </c>
+      <c r="G67">
+        <v>0.037860962084702202</v>
+      </c>
+      <c r="H67">
+        <v>220516758.800915</v>
+      </c>
+      <c r="I67">
+        <v>149926826.00392801</v>
+      </c>
+      <c r="J67">
+        <v>1.5114836558065701</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F68">
+        <v>154235966.266496</v>
+      </c>
+      <c r="G68">
+        <v>0.0341836426920437</v>
+      </c>
+      <c r="H68">
+        <v>232281747.600411</v>
+      </c>
+      <c r="I68">
+        <v>159213603.186849</v>
+      </c>
+      <c r="J68">
+        <v>1.50601544648194</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F69">
+        <v>164597463.262959</v>
+      </c>
+      <c r="G69">
+        <v>0.030278542542997101</v>
+      </c>
+      <c r="H69">
+        <v>246895376.48311999</v>
+      </c>
+      <c r="I69">
+        <v>171001208.387458</v>
+      </c>
+      <c r="J69">
+        <v>1.49999502780114</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F70">
+        <v>178050268.19395301</v>
+      </c>
+      <c r="G70">
+        <v>0.026084322759042201</v>
+      </c>
+      <c r="H70">
+        <v>265868918.50703001</v>
+      </c>
+      <c r="I70">
+        <v>186814831.424263</v>
+      </c>
+      <c r="J70">
+        <v>1.4932239148183399</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F71">
+        <v>196734166.91255099</v>
+      </c>
+      <c r="G71">
+        <v>0.021502235478575001</v>
+      </c>
+      <c r="H71">
+        <v>292220280.86798102</v>
+      </c>
+      <c r="I71">
+        <v>210034969.27735999</v>
+      </c>
+      <c r="J71">
+        <v>1.4853560286651899</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F72">
+        <v>225870080.58719099</v>
+      </c>
+      <c r="G72">
+        <v>0.0163506179445666</v>
+      </c>
+      <c r="H72">
+        <v>333312936.663293</v>
+      </c>
+      <c r="I72">
+        <v>250797686.08587199</v>
+      </c>
+      <c r="J72">
+        <v>1.4756843216984901</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F73">
+        <v>284375844.47941601</v>
+      </c>
+      <c r="G73">
+        <v>0.0101991958191273</v>
+      </c>
+      <c r="H73">
+        <v>415828187.24071097</v>
+      </c>
+      <c r="I73">
+        <v>289248863.95471299</v>
+      </c>
+      <c r="J73">
+        <v>1.46224862383067</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F74">
+        <v>294347900.08253801</v>
+      </c>
+      <c r="G74">
+        <v>0.0094897427578769598</v>
+      </c>
+      <c r="H74">
+        <v>429892556.49464399</v>
+      </c>
+      <c r="I74">
+        <v>299959900.18673599</v>
+      </c>
+      <c r="J74">
+        <v>1.46049133142821</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F75">
+        <v>305863664.22705001</v>
+      </c>
+      <c r="G75">
+        <v>0.0087540182798954407</v>
+      </c>
+      <c r="H75">
+        <v>446134138.53304303</v>
+      </c>
+      <c r="I75">
+        <v>312440122.972561</v>
+      </c>
+      <c r="J75">
+        <v>1.45860457030904</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F76">
+        <v>319405525.45616102</v>
+      </c>
+      <c r="G76">
+        <v>0.0079876830256366792</v>
+      </c>
+      <c r="H76">
+        <v>465233283.613231</v>
+      </c>
+      <c r="I76">
+        <v>327286028.89819199</v>
+      </c>
+      <c r="J76">
+        <v>1.45655991063024</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F77">
+        <v>335706975.70811898</v>
+      </c>
+      <c r="G77">
+        <v>0.0071849345828885998</v>
+      </c>
+      <c r="H77">
+        <v>488224492.73227698</v>
+      </c>
+      <c r="I77">
+        <v>345434302.55101901</v>
+      </c>
+      <c r="J77">
+        <v>1.45431739004662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F78">
+        <v>355955473.033077</v>
+      </c>
+      <c r="G78">
+        <v>0.0063376730930498797</v>
+      </c>
+      <c r="H78">
+        <v>516782530.768718</v>
+      </c>
+      <c r="I78">
+        <v>368469708.77199602</v>
+      </c>
+      <c r="J78">
+        <v>1.45181790959763</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F79">
+        <v>382245022.19266403</v>
+      </c>
+      <c r="G79">
+        <v>0.00543391167704223</v>
+      </c>
+      <c r="H79">
+        <v>553860736.26769602</v>
+      </c>
+      <c r="I79">
+        <v>399372782.32051402</v>
+      </c>
+      <c r="J79">
+        <v>1.44896781935994</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F80">
+        <v>418757205.070014</v>
+      </c>
+      <c r="G80">
+        <v>0.0044543529706622103</v>
+      </c>
+      <c r="H80">
+        <v>605356720.91637301</v>
+      </c>
+      <c r="I80">
+        <v>444749709.93634802</v>
+      </c>
+      <c r="J80">
+        <v>1.4456031170022801</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F81">
+        <v>475694775.992558</v>
+      </c>
+      <c r="G81">
+        <v>0.0033634963329073802</v>
+      </c>
+      <c r="H81">
+        <v>685660226.40684104</v>
+      </c>
+      <c r="I81">
+        <v>524408446.75100398</v>
+      </c>
+      <c r="J81">
+        <v>1.4413869165920099</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>216236487.06310001</v>
-      </c>
-      <c r="G63">
-        <v>0.0019477215288518301</v>
-      </c>
-      <c r="H63">
-        <v>280789325.45673901</v>
-      </c>
-      <c r="I63">
-        <v>280789325.45673603</v>
-      </c>
-      <c r="J63">
-        <v>1.2985288896910401</v>
+      <c r="F82">
+        <v>590027077.98063099</v>
+      </c>
+      <c r="G82">
+        <v>0.0020772573039744302</v>
+      </c>
+      <c r="H82">
+        <v>846912006.06085896</v>
+      </c>
+      <c r="I82">
+        <v>846912006.06086898</v>
+      </c>
+      <c r="J82">
+        <v>1.4353782015554599</v>
       </c>
     </row>
   </sheetData>
